--- a/Data/Optimised_Networks/Predictions/3_10_10_6_200_0.09_40 predictions_manual.xlsx
+++ b/Data/Optimised_Networks/Predictions/3_10_10_6_200_0.09_40 predictions_manual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\Data\Optimised_Networks\Predictions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F304D988-19FB-43E1-81B4-651365A52972}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59B83A5-6C39-4129-A4CD-AC41D361BD92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6938,8 +6938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AG29" sqref="AG29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
